--- a/Doc/STM32/STM32_AFIO.xlsx
+++ b/Doc/STM32/STM32_AFIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>UART0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,46 @@
   </si>
   <si>
     <t>PE15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B23" sqref="B23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,6 +837,50 @@
       </c>
       <c r="C20" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
